--- a/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,05</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 23,04</t>
+          <t>1,72; 26,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 27,62</t>
+          <t>-2,1; 28,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 43,56</t>
+          <t>3,2; 49,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 102,5</t>
+          <t>-5,09; 99,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>9,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 14,38</t>
+          <t>-3,33; 21,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,55; -0,18</t>
+          <t>-38,1; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 24,49</t>
+          <t>-4,3; 40,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,47; -0,65</t>
+          <t>-62,81; -0,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 11,49</t>
+          <t>-6,47; 8,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 5,58</t>
+          <t>-9,61; 5,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 16,95</t>
+          <t>-8,16; 12,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 10,5</t>
+          <t>-15,15; 11,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,68</t>
+          <t>-0,63; 13,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 47,25</t>
+          <t>-1,81; 46,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 14,78</t>
+          <t>-0,72; 20,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 332,25</t>
+          <t>-3,07; 296,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 9,44</t>
+          <t>-3,36; 9,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 7,57</t>
+          <t>-5,83; 7,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 13,42</t>
+          <t>-4,28; 13,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 13,06</t>
+          <t>-8,93; 12,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 14,51</t>
+          <t>-2,45; 13,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 31,06</t>
+          <t>-4,54; 35,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 24,72</t>
+          <t>-3,43; 23,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 51,69</t>
+          <t>-6,95; 62,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 6,24</t>
+          <t>-9,86; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 3,82</t>
+          <t>-11,23; 4,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 9,84</t>
+          <t>-13,66; 8,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 5,75</t>
+          <t>-14,31; 5,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,53</t>
+          <t>1,3; 7,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 28,07</t>
+          <t>-0,16; 28,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,59</t>
+          <t>1,81; 11,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 73,55</t>
+          <t>-0,52; 75,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_AFEC_CAT-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>14,19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>14,93</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>36,98%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>24,67%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>36,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,55; 27,63</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 10,08</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,72; 26,72</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 28,36</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,56; 10,08</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,35; 93,41</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; 26,36</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>3,2; 49,84</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 99,48</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-15,33; 26,36</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>9,57</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-15,34</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-7,81%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>15,7%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-28,47%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-14,13; 6,13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-9,12; 8,24</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-3,33; 21,68</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-38,1; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,12; 8,24</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-22,81; 12,98</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-17,35; 18,65</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-4,3; 40,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-62,81; -0,11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-17,35; 18,65</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,12</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-3,59%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,47%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,63%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,59%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-10,72; 3,84</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; 5,27</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-6,47; 8,86</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 5,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 5,27</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-16,73; 6,83</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-17,18; 10,7</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-8,16; 12,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-15,15; 11,08</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-17,18; 10,7</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>6,7</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>23,59</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-4,43%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>9,14%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>65,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,43%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-7,3; 5,23</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 4,59</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,63; 13,88</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 46,37</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 4,59</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-11,42; 9,25</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-16,96; 9,59</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-0,72; 20,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 296,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; 9,59</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,06</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-6,76%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4,1%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,76%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-6,33; 6,44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 3,61</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-3,36; 9,65</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 7,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 3,61</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-9,51; 10,88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-19,75; 7,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-4,28; 13,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,93; 12,43</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-19,75; 7,14</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>6,21</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,08</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-3,06%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9,91%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,54%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-8,62; 5,39</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 5,6</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-2,45; 13,84</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 35,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,89; 5,6</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-12,63; 8,98</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 11,68</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-3,43; 23,97</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-6,95; 62,97</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-15,06; 11,68</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-3,64</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-2,43</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,65</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-3,51%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-5,03%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-10,92; 4,15</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 9,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-9,86; 5,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,23; 4,04</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 9,61</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-13,95; 6,1</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 20,86</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-13,66; 8,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-14,31; 5,93</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-7,14; 20,86</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>4,64</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9,88</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-2,01%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>6,68%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-2,01%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-2,62; 3,85</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 1,91</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,3; 7,75</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 28,9</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 1,91</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>-4,32; 6,69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 4,0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>1,81; 11,31</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 75,85</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-7,14; 4,0</t>
         </is>
       </c>
     </row>
